--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H2">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I2">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J2">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N2">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O2">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P2">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q2">
-        <v>1.677800636828334</v>
+        <v>0.1483348671606667</v>
       </c>
       <c r="R2">
-        <v>15.100205731455</v>
+        <v>1.335013804446</v>
       </c>
       <c r="S2">
-        <v>8.215774366895162E-05</v>
+        <v>1.212617566197519E-05</v>
       </c>
       <c r="T2">
-        <v>8.215774366895161E-05</v>
+        <v>1.212617566197519E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H3">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I3">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J3">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.542395</v>
       </c>
       <c r="O3">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P3">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q3">
-        <v>13.24209316458167</v>
+        <v>2.283007262687222</v>
       </c>
       <c r="R3">
-        <v>119.178838481235</v>
+        <v>20.547065364185</v>
       </c>
       <c r="S3">
-        <v>0.0006484325205125018</v>
+        <v>0.0001866327697244959</v>
       </c>
       <c r="T3">
-        <v>0.0006484325205125017</v>
+        <v>0.0001866327697244959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H4">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I4">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J4">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N4">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O4">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P4">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q4">
-        <v>65.62326849072801</v>
+        <v>5.978646239230112</v>
       </c>
       <c r="R4">
-        <v>590.6094164165521</v>
+        <v>53.807816153071</v>
       </c>
       <c r="S4">
-        <v>0.003213409002855001</v>
+        <v>0.000488746279990843</v>
       </c>
       <c r="T4">
-        <v>0.003213409002855</v>
+        <v>0.0004887462799908429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J5">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N5">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O5">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P5">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q5">
-        <v>409.1766307864112</v>
+        <v>209.8278158938266</v>
       </c>
       <c r="R5">
-        <v>3682.5896770777</v>
+        <v>1888.45034304444</v>
       </c>
       <c r="S5">
-        <v>0.02003636666333844</v>
+        <v>0.01715314142251662</v>
       </c>
       <c r="T5">
-        <v>0.02003636666333843</v>
+        <v>0.01715314142251662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J6">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.542395</v>
       </c>
       <c r="O6">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P6">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q6">
         <v>3229.439151892322</v>
@@ -818,10 +818,10 @@
         <v>29064.9523670309</v>
       </c>
       <c r="S6">
-        <v>0.1581376405585385</v>
+        <v>0.2640023023251176</v>
       </c>
       <c r="T6">
-        <v>0.1581376405585384</v>
+        <v>0.2640023023251175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J7">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N7">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O7">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P7">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q7">
-        <v>16003.99195996699</v>
+        <v>8457.123442330771</v>
       </c>
       <c r="R7">
-        <v>144035.9276397029</v>
+        <v>76114.11098097694</v>
       </c>
       <c r="S7">
-        <v>0.7836758672427785</v>
+        <v>0.6913584541497784</v>
       </c>
       <c r="T7">
-        <v>0.7836758672427784</v>
+        <v>0.6913584541497784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H8">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I8">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J8">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N8">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O8">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P8">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q8">
-        <v>14.55148861615333</v>
+        <v>5.782016137683332</v>
       </c>
       <c r="R8">
-        <v>130.96339754538</v>
+        <v>52.03814523914999</v>
       </c>
       <c r="S8">
-        <v>0.0007125503742730514</v>
+        <v>0.0004726720339458745</v>
       </c>
       <c r="T8">
-        <v>0.0007125503742730513</v>
+        <v>0.0004726720339458745</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H9">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I9">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J9">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>6.542395</v>
       </c>
       <c r="O9">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P9">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q9">
-        <v>114.8480717606067</v>
+        <v>88.99043824273609</v>
       </c>
       <c r="R9">
-        <v>1033.63264584546</v>
+        <v>800.9139441846249</v>
       </c>
       <c r="S9">
-        <v>0.005623825759428833</v>
+        <v>0.007274848503411859</v>
       </c>
       <c r="T9">
-        <v>0.005623825759428832</v>
+        <v>0.007274848503411858</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H10">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I10">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J10">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N10">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O10">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P10">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q10">
-        <v>569.147623047008</v>
+        <v>233.0445275505305</v>
       </c>
       <c r="R10">
-        <v>5122.328607423072</v>
+        <v>2097.400747954775</v>
       </c>
       <c r="S10">
-        <v>0.02786975013460642</v>
+        <v>0.01905107633985257</v>
       </c>
       <c r="T10">
-        <v>0.02786975013460641</v>
+        <v>0.01905107633985257</v>
       </c>
     </row>
   </sheetData>
